--- a/data/trans_dic/IP1001-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1001-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,82</t>
+          <t>0,59; 3,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,0</t>
+          <t>1,14; 4,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 5,86</t>
+          <t>0,97; 3,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 7,14</t>
+          <t>0,95; 4,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 7,38</t>
+          <t>0,95; 4,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,28</t>
+          <t>0,32; 3,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,7</t>
+          <t>1,0; 4,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,7</t>
+          <t>0,85; 4,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,39; 6,26</t>
+          <t>1,01; 3,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,58</t>
+          <t>1,0; 3,35</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,5</t>
+          <t>1,29; 3,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,04</t>
+          <t>1,36; 3,92</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>3,57%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,38</t>
+          <t>2,69; 6,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,72</t>
+          <t>1,99; 6,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,87</t>
+          <t>2,07; 5,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,92</t>
+          <t>2,81; 7,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,17</t>
+          <t>3,05; 7,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,15</t>
+          <t>1,01; 4,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,33</t>
+          <t>1,43; 4,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,54</t>
+          <t>1,31; 4,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,31</t>
+          <t>3,39; 6,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,35</t>
+          <t>1,98; 4,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,42</t>
+          <t>2,11; 4,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,92</t>
+          <t>2,5; 5,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1001-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1001-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>0,65%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,5</t>
+          <t>0,67; 5,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,55</t>
+          <t>0,0; 3,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,11</t>
+          <t>0,0; 3,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,59</t>
+          <t>0,0; 6,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,67</t>
+          <t>0,42; 6,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 4,32</t>
+          <t>0,46; 4,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,54</t>
+          <t>0,0; 2,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,19</t>
+          <t>0; 1,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,64</t>
+          <t>0,95; 4,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,21</t>
+          <t>0,45; 2,69</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,17</t>
+          <t>0,22; 1,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,8</t>
+          <t>0,0; 3,19</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>1,93%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,38</t>
+          <t>0,47; 2,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,72</t>
+          <t>1,3; 4,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,87</t>
+          <t>0,95; 3,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,92</t>
+          <t>0,55; 4,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,17</t>
+          <t>0,28; 2,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,15</t>
+          <t>0,64; 3,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,33</t>
+          <t>0,87; 4,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,54</t>
+          <t>0,62; 4,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,31</t>
+          <t>0,6; 2,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,35</t>
+          <t>1,36; 3,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,42</t>
+          <t>1,2; 3,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,92</t>
+          <t>0,94; 3,37</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>4,64%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>2,71%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,49%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,29%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,82</t>
+          <t>2,18; 7,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,0</t>
+          <t>0,89; 5,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 5,86</t>
+          <t>1,48; 5,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 7,14</t>
+          <t>1,68; 8,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,05; 7,38</t>
+          <t>1,96; 7,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,28</t>
+          <t>0,43; 3,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,7</t>
+          <t>2,42; 7,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,7</t>
+          <t>1,02; 5,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 6,26</t>
+          <t>2,54; 6,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,58</t>
+          <t>0,87; 3,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,5</t>
+          <t>2,48; 6,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,04</t>
+          <t>1,84; 5,44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>4,48%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4,29%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>3,4%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,02%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,24%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,18%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>2,84%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>2,3%</t>
-        </is>
-      </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>3,5%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,78</t>
+          <t>1,63; 5,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,86</t>
+          <t>2,24; 7,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,74</t>
+          <t>1,67; 6,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,88</t>
+          <t>2,54; 7,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 4,27</t>
+          <t>3,07; 8,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,88</t>
+          <t>0,98; 5,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,3</t>
+          <t>0,35; 3,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,52</t>
+          <t>1,12; 4,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 3,63</t>
+          <t>2,93; 6,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,09</t>
+          <t>2,14; 5,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,2</t>
+          <t>1,3; 3,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,72</t>
+          <t>2,31; 5,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,58%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,4%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,84%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 3,75</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 3,79</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,8; 3,62</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,31; 4,96</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,03; 4,24</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 2,95</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,42; 3,38</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,31; 3,39</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 3,61</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,72; 2,97</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 3,17</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2,15; 3,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP1001-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1001-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,37 +724,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 5,64</t>
+          <t>0,68; 5,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,12</t>
+          <t>0,0; 3,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,28</t>
+          <t>0,0; 2,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,36</t>
+          <t>0,0; 6,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 6,21</t>
+          <t>0,42; 5,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,24</t>
+          <t>0,46; 4,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,32</t>
+          <t>0,0; 2,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,22 +764,22 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,49</t>
+          <t>0,98; 4,33</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,69</t>
+          <t>0,48; 2,69</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,9</t>
+          <t>0,22; 2,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,19</t>
+          <t>0,0; 3,36</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,98</t>
+          <t>0,51; 2,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,87</t>
+          <t>1,51; 4,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,87</t>
+          <t>1,04; 3,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,22</t>
+          <t>0,73; 4,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,53</t>
+          <t>0,28; 2,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,82</t>
+          <t>0,68; 3,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,12</t>
+          <t>0,88; 4,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,63</t>
+          <t>0,79; 4,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,08</t>
+          <t>0,55; 2,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,49</t>
+          <t>1,36; 3,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,42</t>
+          <t>1,34; 3,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,37</t>
+          <t>0,98; 3,51</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 7,66</t>
+          <t>2,19; 7,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,56</t>
+          <t>0,89; 5,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,88</t>
+          <t>1,57; 5,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 8,13</t>
+          <t>1,64; 7,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,93</t>
+          <t>2,04; 8,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,98</t>
+          <t>0,42; 3,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,93</t>
+          <t>2,44; 7,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 5,41</t>
+          <t>0,92; 5,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,44</t>
+          <t>2,69; 6,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,71</t>
+          <t>0,93; 3,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,14</t>
+          <t>2,55; 6,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 5,44</t>
+          <t>1,85; 5,66</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,97</t>
+          <t>1,75; 6,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 7,29</t>
+          <t>2,28; 7,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,15</t>
+          <t>1,71; 6,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 7,07</t>
+          <t>2,47; 7,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 8,4</t>
+          <t>3,17; 8,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,24</t>
+          <t>1,03; 5,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,53</t>
+          <t>0,35; 3,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,51</t>
+          <t>1,1; 4,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,93; 6,12</t>
+          <t>2,87; 6,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,53</t>
+          <t>2,06; 5,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,92</t>
+          <t>1,25; 4,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,29</t>
+          <t>2,35; 5,3</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,75</t>
+          <t>1,83; 3,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,79</t>
+          <t>1,84; 3,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,62</t>
+          <t>1,83; 3,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,31; 4,96</t>
+          <t>2,29; 5,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 4,24</t>
+          <t>1,95; 4,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,95</t>
+          <t>1,19; 2,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,38</t>
+          <t>1,48; 3,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,39</t>
+          <t>1,24; 3,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,19; 3,61</t>
+          <t>2,22; 3,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,97</t>
+          <t>1,7; 3,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 3,17</t>
+          <t>1,85; 3,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,81</t>
+          <t>2,1; 3,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1001-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1001-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>2,42%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,9%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,95%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,28%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,02%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,77%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,46%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,61%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,79</t>
+          <t>0,42; 5,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,05</t>
+          <t>0,46; 4,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,94</t>
+          <t>0,0; 1,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,56</t>
+          <t>0; 1,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 5,62</t>
+          <t>0,68; 6,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,03</t>
+          <t>0,0; 2,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,34</t>
+          <t>0,0; 3,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
+          <t>0,0; 9,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,33</t>
+          <t>0,99; 4,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,69</t>
+          <t>0,45; 2,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,05</t>
+          <t>0,22; 2,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,36</t>
+          <t>0,0; 3,01</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,02%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,81%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>1,31%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>2,72%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>2,19%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,89%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,02%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,81%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>2,04%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,98%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,84</t>
+          <t>0,28; 2,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,87</t>
+          <t>0,76; 3,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,97</t>
+          <t>0,85; 4,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,55</t>
+          <t>0,62; 4,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,5</t>
+          <t>0,5; 2,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,9</t>
+          <t>1,47; 4,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 4,11</t>
+          <t>1,0; 4,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,4</t>
+          <t>0,72; 4,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,12</t>
+          <t>0,57; 2,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,69</t>
+          <t>1,35; 3,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,52</t>
+          <t>1,31; 3,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,51</t>
+          <t>0,99; 3,72</t>
         </is>
       </c>
     </row>
@@ -936,49 +936,49 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,34%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,46%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4,64%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>4,33%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>2,46%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>3,36%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,79%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4,43%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>4,34%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,46%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,64%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,71%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>4,34%</t>
-        </is>
-      </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
           <t>1,97%</t>
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,67%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 7,88</t>
+          <t>2,04; 7,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,34</t>
+          <t>0,42; 4,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,92</t>
+          <t>2,51; 8,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 7,75</t>
+          <t>0,94; 5,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,04; 8,01</t>
+          <t>2,13; 8,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,96</t>
+          <t>0,8; 5,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 7,62</t>
+          <t>1,51; 6,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,39</t>
+          <t>1,99; 11,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,96</t>
+          <t>2,6; 6,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,95</t>
+          <t>0,91; 3,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,03</t>
+          <t>2,55; 6,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 5,66</t>
+          <t>2,06; 7,35</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2,26%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>3,34%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>4,23%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>3,49%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,48%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>5,29%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,54%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,2%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,37%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,06</t>
+          <t>3,19; 8,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,28</t>
+          <t>0,93; 5,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,71</t>
+          <t>0,35; 3,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 7,21</t>
+          <t>1,01; 4,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 8,35</t>
+          <t>1,68; 5,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 5,3</t>
+          <t>2,33; 7,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,27</t>
+          <t>1,67; 6,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,78</t>
+          <t>2,52; 7,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 6,19</t>
+          <t>2,9; 6,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,42</t>
+          <t>1,95; 5,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,1</t>
+          <t>1,24; 3,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,3</t>
+          <t>2,12; 4,87</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,12%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>2,67%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>2,67%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>2,58%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,4%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3,02%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,24%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 3,93</t>
+          <t>2,1; 4,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,8</t>
+          <t>1,16; 2,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 3,74</t>
+          <t>1,42; 3,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,29; 5,05</t>
+          <t>1,34; 3,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,15</t>
+          <t>1,86; 3,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,93</t>
+          <t>1,81; 3,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,28</t>
+          <t>1,75; 3,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,23</t>
+          <t>2,29; 5,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,22; 3,59</t>
+          <t>2,2; 3,63</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,11</t>
+          <t>1,69; 3,09</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,23</t>
+          <t>1,82; 3,2</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,79</t>
+          <t>2,13; 3,91</t>
         </is>
       </c>
     </row>
